--- a/PSP/메르베/신수동크러셔_psp_20161225_메르베.xlsx
+++ b/PSP/메르베/신수동크러셔_psp_20161225_메르베.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agdag\Desktop\2019.2\융설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E8B9B-BFAD-4B5D-9955-E51F9DE15229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8810FE3-CD6E-4D25-BF60-04FD517EAE12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서한얼" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Table C16Time Recording Log</t>
   </si>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2019.09.24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.09.30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2019.10.04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>메르베</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -140,6 +132,38 @@
   </si>
   <si>
     <t>전체 팀 회의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회이록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2019.09.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USECASE DIA.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,6 +226,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,11 +304,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -526,25 +558,25 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="13">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -552,7 +584,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -563,12 +595,12 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>28</v>
+      <c r="E3" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -576,7 +608,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -596,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -613,10 +645,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -626,7 +658,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -636,7 +668,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
@@ -646,7 +678,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
@@ -656,7 +688,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
@@ -666,7 +698,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>20</v>
       </c>
@@ -676,7 +708,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
@@ -686,7 +718,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>22</v>
       </c>
@@ -696,7 +728,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
@@ -706,19 +738,29 @@
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1700</v>
+      </c>
+      <c r="D16" s="13">
+        <v>20</v>
+      </c>
+      <c r="E16" s="13">
+        <v>100</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.5">
+      <c r="A17" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -726,9 +768,9 @@
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -736,17 +778,27 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1630</v>
+      </c>
+      <c r="D19" s="13">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13">
+        <v>80</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="17" t="s">
         <v>15</v>
       </c>
@@ -763,10 +815,10 @@
         <v>210</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="17" t="s">
         <v>16</v>
       </c>
@@ -784,10 +836,10 @@
         <v>60</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="17" t="s">
         <v>17</v>
       </c>
@@ -804,18 +856,28 @@
         <v>60</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1800</v>
+      </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E23" s="13">
+        <v>120</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.5">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -823,7 +885,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12.5">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -831,7 +893,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="12.5">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -839,7 +901,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="12.5">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -847,7 +909,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -855,7 +917,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -863,7 +925,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -871,7 +933,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -879,7 +941,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.5">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -887,7 +949,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.5">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -895,7 +957,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.5">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -903,7 +965,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -911,7 +973,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -919,7 +981,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>

--- a/PSP/메르베/신수동크러셔_psp_20161225_메르베.xlsx
+++ b/PSP/메르베/신수동크러셔_psp_20161225_메르베.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agdag\Desktop\2019.2\융설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8810FE3-CD6E-4D25-BF60-04FD517EAE12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D8FBE-A947-4F99-B79B-C10E57DBCC91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Table C16Time Recording Log</t>
   </si>
@@ -166,12 +166,31 @@
     <t>USECASE DIA.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>2019.10.25</t>
+  </si>
+  <si>
+    <t>2019.11.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>복습</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -233,6 +252,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,11 +331,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -559,18 +586,18 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="13">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -754,7 +781,7 @@
       <c r="E16" s="13">
         <v>100</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -779,7 +806,7 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="12">
@@ -794,7 +821,7 @@
       <c r="E19" s="13">
         <v>80</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -860,7 +887,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="12">
@@ -873,36 +900,74 @@
       <c r="E23" s="13">
         <v>120</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1800</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="13">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13">
+        <v>90</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1630</v>
+      </c>
+      <c r="D25" s="13">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13">
+        <v>80</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13">
+      <c r="A26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="12">
+        <v>1800</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="13">
+        <v>20</v>
+      </c>
+      <c r="E26" s="13">
+        <v>100</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="12.5">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
